--- a/data/pca/factorExposure/factorExposure_2017-03-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-03-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01463407571469984</v>
+        <v>0.01044944027699843</v>
       </c>
       <c r="C2">
-        <v>0.01861914995287786</v>
+        <v>-0.04076844582606245</v>
       </c>
       <c r="D2">
-        <v>-0.0323563753081232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02955914385756482</v>
+      </c>
+      <c r="E2">
+        <v>0.03788299790017023</v>
+      </c>
+      <c r="F2">
+        <v>-0.003033389757423596</v>
+      </c>
+      <c r="G2">
+        <v>0.1032907811426433</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.02130903168298097</v>
+        <v>0.0411614731942882</v>
       </c>
       <c r="C3">
-        <v>-0.00321854166995247</v>
+        <v>-0.1016745610546972</v>
       </c>
       <c r="D3">
-        <v>-0.09628089938320591</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01796482308007834</v>
+      </c>
+      <c r="E3">
+        <v>0.1030570716272683</v>
+      </c>
+      <c r="F3">
+        <v>0.001923601112411463</v>
+      </c>
+      <c r="G3">
+        <v>0.1626242089043654</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02820114982959759</v>
+        <v>0.05566751467902311</v>
       </c>
       <c r="C4">
-        <v>0.007264193582777237</v>
+        <v>-0.06871555483851891</v>
       </c>
       <c r="D4">
-        <v>-0.08133691084301757</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0247794568480932</v>
+      </c>
+      <c r="E4">
+        <v>0.03465400846951074</v>
+      </c>
+      <c r="F4">
+        <v>-0.009983771428131975</v>
+      </c>
+      <c r="G4">
+        <v>0.09991741470086175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01268684597406217</v>
+        <v>0.03584176413562235</v>
       </c>
       <c r="C6">
-        <v>0.00960227878129238</v>
+        <v>-0.0503742983436951</v>
       </c>
       <c r="D6">
-        <v>-0.07344329482437564</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01740364224380441</v>
+      </c>
+      <c r="E6">
+        <v>0.0403943598622388</v>
+      </c>
+      <c r="F6">
+        <v>-0.006649689991948304</v>
+      </c>
+      <c r="G6">
+        <v>0.08733413796921022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.004520193016702465</v>
+        <v>0.02046301185182646</v>
       </c>
       <c r="C7">
-        <v>0.01082578406503598</v>
+        <v>-0.03939085595506575</v>
       </c>
       <c r="D7">
-        <v>-0.03673720810296625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01411423571398385</v>
+      </c>
+      <c r="E7">
+        <v>0.008950278996414405</v>
+      </c>
+      <c r="F7">
+        <v>0.003687139830574256</v>
+      </c>
+      <c r="G7">
+        <v>0.1223786045262077</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.002988843854426254</v>
+        <v>0.002484253710826969</v>
       </c>
       <c r="C8">
-        <v>0.0031159605954457</v>
+        <v>-0.02412084025549039</v>
       </c>
       <c r="D8">
-        <v>0.005603761024020096</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.003951626216608923</v>
+      </c>
+      <c r="E8">
+        <v>0.0315780597502859</v>
+      </c>
+      <c r="F8">
+        <v>-0.004535789840337796</v>
+      </c>
+      <c r="G8">
+        <v>0.0706574702018697</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.0136244703779271</v>
+        <v>0.03390859338069555</v>
       </c>
       <c r="C9">
-        <v>0.007697200690253926</v>
+        <v>-0.05027944112471608</v>
       </c>
       <c r="D9">
-        <v>-0.05862564202037666</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01656933041331975</v>
+      </c>
+      <c r="E9">
+        <v>0.02407289234814393</v>
+      </c>
+      <c r="F9">
+        <v>-0.006990564775992719</v>
+      </c>
+      <c r="G9">
+        <v>0.1002431128484675</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.137429489565474</v>
+        <v>0.0983647114050038</v>
       </c>
       <c r="C10">
-        <v>-0.1088446221848273</v>
+        <v>0.1841285272586121</v>
       </c>
       <c r="D10">
-        <v>0.108669989140304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01551448021448243</v>
+      </c>
+      <c r="E10">
+        <v>0.02132312594154957</v>
+      </c>
+      <c r="F10">
+        <v>0.02069963828359767</v>
+      </c>
+      <c r="G10">
+        <v>0.05831596687406714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.00238262890570856</v>
+        <v>0.03447777176127797</v>
       </c>
       <c r="C11">
-        <v>-0.0003970534726803865</v>
+        <v>-0.05306286836435514</v>
       </c>
       <c r="D11">
-        <v>-0.05283593848115584</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002597365414720595</v>
+      </c>
+      <c r="E11">
+        <v>0.01880713099610523</v>
+      </c>
+      <c r="F11">
+        <v>-0.01915929653780351</v>
+      </c>
+      <c r="G11">
+        <v>0.09007216215119987</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.00504233624840835</v>
+        <v>0.03611797610671446</v>
       </c>
       <c r="C12">
-        <v>0.003459209814808573</v>
+        <v>-0.0479604040100918</v>
       </c>
       <c r="D12">
-        <v>-0.04718465963075585</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006631460812025349</v>
+      </c>
+      <c r="E12">
+        <v>0.01028153768547671</v>
+      </c>
+      <c r="F12">
+        <v>-0.0007370649458582469</v>
+      </c>
+      <c r="G12">
+        <v>0.08228718261376479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01776733831326158</v>
+        <v>0.01517175106102848</v>
       </c>
       <c r="C13">
-        <v>0.01330037750665958</v>
+        <v>-0.04157699751162097</v>
       </c>
       <c r="D13">
-        <v>-0.03501045805844376</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02673099277131495</v>
+      </c>
+      <c r="E13">
+        <v>0.03959120145335016</v>
+      </c>
+      <c r="F13">
+        <v>-0.003618247042573914</v>
+      </c>
+      <c r="G13">
+        <v>0.1404242650920939</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.004445222482850673</v>
+        <v>0.007892794366493448</v>
       </c>
       <c r="C14">
-        <v>0.00537711724685513</v>
+        <v>-0.02798805465333809</v>
       </c>
       <c r="D14">
-        <v>-0.02004030111995556</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0102912276939715</v>
+      </c>
+      <c r="E14">
+        <v>0.009288569847106227</v>
+      </c>
+      <c r="F14">
+        <v>0.006792754354136632</v>
+      </c>
+      <c r="G14">
+        <v>0.1072591437374118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.005499610973224127</v>
+        <v>0.03301497224582598</v>
       </c>
       <c r="C16">
-        <v>-0.003042791651897512</v>
+        <v>-0.04611071931736698</v>
       </c>
       <c r="D16">
-        <v>-0.04198621547953043</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002069663522743028</v>
+      </c>
+      <c r="E16">
+        <v>0.01623407638730965</v>
+      </c>
+      <c r="F16">
+        <v>-0.0007316431509163998</v>
+      </c>
+      <c r="G16">
+        <v>0.09202763365077435</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01129402023698631</v>
+        <v>0.02248173431440789</v>
       </c>
       <c r="C19">
-        <v>0.007833926246834872</v>
+        <v>-0.0512670695028232</v>
       </c>
       <c r="D19">
-        <v>-0.03784781870468779</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.01955465139201845</v>
+      </c>
+      <c r="E19">
+        <v>0.08354785564546791</v>
+      </c>
+      <c r="F19">
+        <v>-0.01714930320177304</v>
+      </c>
+      <c r="G19">
+        <v>0.1386779846316653</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.004723958556008406</v>
+        <v>0.01523975463850516</v>
       </c>
       <c r="C20">
-        <v>0.00972439932847745</v>
+        <v>-0.04163217617484559</v>
       </c>
       <c r="D20">
-        <v>-0.03296257051023078</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01440356044994879</v>
+      </c>
+      <c r="E20">
+        <v>0.03972501400831409</v>
+      </c>
+      <c r="F20">
+        <v>0.01378661643440818</v>
+      </c>
+      <c r="G20">
+        <v>0.1112998599029758</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01352141831293717</v>
+        <v>0.01180432519394446</v>
       </c>
       <c r="C21">
-        <v>0.006082298508694969</v>
+        <v>-0.03791951364534885</v>
       </c>
       <c r="D21">
-        <v>-0.01823260848158626</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01945218771639076</v>
+      </c>
+      <c r="E21">
+        <v>0.05296206019449937</v>
+      </c>
+      <c r="F21">
+        <v>0.00197782688502255</v>
+      </c>
+      <c r="G21">
+        <v>0.1385408206147062</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001828078743446469</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-4.50846987586307e-05</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0007352469695463753</v>
+      </c>
+      <c r="E22">
+        <v>0.005518502088979797</v>
+      </c>
+      <c r="F22">
+        <v>-0.002703789770922102</v>
+      </c>
+      <c r="G22">
+        <v>0.007247107267162194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001833556633552688</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-5.682387201328326e-05</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.0007340393566160903</v>
+      </c>
+      <c r="E23">
+        <v>0.005505006129676731</v>
+      </c>
+      <c r="F23">
+        <v>-0.002709467643899577</v>
+      </c>
+      <c r="G23">
+        <v>0.007139924022162286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0005366587740011492</v>
+        <v>0.02817459408297621</v>
       </c>
       <c r="C24">
-        <v>0.007080083243289507</v>
+        <v>-0.05081866146623219</v>
       </c>
       <c r="D24">
-        <v>-0.04718924131378165</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.00740450082801117</v>
+      </c>
+      <c r="E24">
+        <v>0.01380550125469349</v>
+      </c>
+      <c r="F24">
+        <v>-0.01139109355547577</v>
+      </c>
+      <c r="G24">
+        <v>0.09075933287818209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01628542349345347</v>
+        <v>0.04226103313750156</v>
       </c>
       <c r="C25">
-        <v>0.001307122323787116</v>
+        <v>-0.05783107942715093</v>
       </c>
       <c r="D25">
-        <v>-0.05879965726173955</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01144949797099982</v>
+      </c>
+      <c r="E25">
+        <v>0.005697613028931032</v>
+      </c>
+      <c r="F25">
+        <v>-0.004406394817638873</v>
+      </c>
+      <c r="G25">
+        <v>0.09880373500610716</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01381888992003219</v>
+        <v>0.01337957597370814</v>
       </c>
       <c r="C26">
-        <v>0.01705614253210701</v>
+        <v>-0.01269747067737886</v>
       </c>
       <c r="D26">
-        <v>-0.00102562337387138</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02436734424413843</v>
+      </c>
+      <c r="E26">
+        <v>0.01054286792800287</v>
+      </c>
+      <c r="F26">
+        <v>0.006833607191646761</v>
+      </c>
+      <c r="G26">
+        <v>0.08326332469341959</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1893264677321044</v>
+        <v>0.1256251371746315</v>
       </c>
       <c r="C28">
-        <v>-0.1318091916440488</v>
+        <v>0.2409182190775975</v>
       </c>
       <c r="D28">
-        <v>0.1417805039811207</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006642979101805974</v>
+      </c>
+      <c r="E28">
+        <v>0.009526958585209709</v>
+      </c>
+      <c r="F28">
+        <v>0.01552058556598051</v>
+      </c>
+      <c r="G28">
+        <v>0.04938954795306966</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01023020422320399</v>
+        <v>0.008512618282331876</v>
       </c>
       <c r="C29">
-        <v>0.0006891024553788504</v>
+        <v>-0.02222310978352801</v>
       </c>
       <c r="D29">
-        <v>-0.01733681408435732</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.009401369815330433</v>
+      </c>
+      <c r="E29">
+        <v>0.006493646994160521</v>
+      </c>
+      <c r="F29">
+        <v>0.01314039462329399</v>
+      </c>
+      <c r="G29">
+        <v>0.09895925507035329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.0113984965784538</v>
+        <v>0.04134231804137439</v>
       </c>
       <c r="C30">
-        <v>0.0220955615374842</v>
+        <v>-0.06845949857076507</v>
       </c>
       <c r="D30">
-        <v>-0.09926833499342651</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.0292388299400403</v>
+      </c>
+      <c r="E30">
+        <v>0.06257940088947354</v>
+      </c>
+      <c r="F30">
+        <v>-0.04307975532660094</v>
+      </c>
+      <c r="G30">
+        <v>0.1345173217545962</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.02597058147028494</v>
+        <v>0.05312450149942339</v>
       </c>
       <c r="C31">
-        <v>-0.01306642292063022</v>
+        <v>-0.03801518994197874</v>
       </c>
       <c r="D31">
-        <v>-0.02812177359286418</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0038072966351063</v>
+      </c>
+      <c r="E31">
+        <v>-0.0004519008469386608</v>
+      </c>
+      <c r="F31">
+        <v>0.04006206130035751</v>
+      </c>
+      <c r="G31">
+        <v>0.09864470951516748</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.0005576114250267509</v>
+        <v>0.001928250684854506</v>
       </c>
       <c r="C32">
-        <v>-0.009927763516327254</v>
+        <v>-0.02299739370436261</v>
       </c>
       <c r="D32">
-        <v>0.0001759050611625357</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.00268906372723618</v>
+      </c>
+      <c r="E32">
+        <v>0.03774661775300694</v>
+      </c>
+      <c r="F32">
+        <v>-0.0422844628904032</v>
+      </c>
+      <c r="G32">
+        <v>0.08696573070304504</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.007406702446213293</v>
+        <v>0.02806502885943183</v>
       </c>
       <c r="C33">
-        <v>0.008532488815936641</v>
+        <v>-0.05033730335025545</v>
       </c>
       <c r="D33">
-        <v>-0.0403333946486799</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01591582784114897</v>
+      </c>
+      <c r="E33">
+        <v>0.04599919942474184</v>
+      </c>
+      <c r="F33">
+        <v>-0.01432064808558504</v>
+      </c>
+      <c r="G33">
+        <v>0.1614957174494842</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.009031988103757554</v>
+        <v>0.03964616546371266</v>
       </c>
       <c r="C34">
-        <v>-0.01348552719185784</v>
+        <v>-0.05933962322679743</v>
       </c>
       <c r="D34">
-        <v>-0.05632497442310969</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004334393896320955</v>
+      </c>
+      <c r="E34">
+        <v>0.009273429494530009</v>
+      </c>
+      <c r="F34">
+        <v>-0.0206475190100634</v>
+      </c>
+      <c r="G34">
+        <v>0.09392312759648687</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.0153359065537333</v>
+        <v>0.01602731705860542</v>
       </c>
       <c r="C36">
-        <v>0.001682241741219006</v>
+        <v>-0.009465888354012754</v>
       </c>
       <c r="D36">
-        <v>-0.00502019318091004</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01264746191655695</v>
+      </c>
+      <c r="E36">
+        <v>0.0100827797099112</v>
+      </c>
+      <c r="F36">
+        <v>0.007423076131042627</v>
+      </c>
+      <c r="G36">
+        <v>0.0923743343549898</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.01508276363335456</v>
+        <v>0.0308519772422119</v>
       </c>
       <c r="C38">
-        <v>-0.0201566888195365</v>
+        <v>-0.03016352693198739</v>
       </c>
       <c r="D38">
-        <v>-0.03795965523599659</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.007252390831410205</v>
+      </c>
+      <c r="E38">
+        <v>0.008868144008248006</v>
+      </c>
+      <c r="F38">
+        <v>0.01718663021139606</v>
+      </c>
+      <c r="G38">
+        <v>0.08819839523411542</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.009402444529706008</v>
+        <v>0.03665989600982245</v>
       </c>
       <c r="C39">
-        <v>0.01829864399534949</v>
+        <v>-0.07968913203381085</v>
       </c>
       <c r="D39">
-        <v>-0.0998853320240079</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01191446130686867</v>
+      </c>
+      <c r="E39">
+        <v>0.03044504005830623</v>
+      </c>
+      <c r="F39">
+        <v>-0.02136142021022272</v>
+      </c>
+      <c r="G39">
+        <v>0.09000837110804086</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01444489654808456</v>
+        <v>0.0132439756758623</v>
       </c>
       <c r="C40">
-        <v>0.00239141421224682</v>
+        <v>-0.03912316602396748</v>
       </c>
       <c r="D40">
-        <v>-0.03251573597032469</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01488202700483051</v>
+      </c>
+      <c r="E40">
+        <v>0.03285213697849518</v>
+      </c>
+      <c r="F40">
+        <v>0.008305136195958459</v>
+      </c>
+      <c r="G40">
+        <v>0.1241622931058128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01541531888635882</v>
+        <v>0.0205301202085255</v>
       </c>
       <c r="C41">
-        <v>-0.007628873716472776</v>
+        <v>-0.002623623041891461</v>
       </c>
       <c r="D41">
-        <v>0.009096884498729451</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.004533077983399257</v>
+      </c>
+      <c r="E41">
+        <v>0.008163325963783276</v>
+      </c>
+      <c r="F41">
+        <v>0.01525248953980703</v>
+      </c>
+      <c r="G41">
+        <v>0.08564434491961459</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.04512546744116031</v>
+        <v>0.009865583090790329</v>
       </c>
       <c r="C42">
-        <v>0.08268043691764246</v>
+        <v>-0.03206693665456613</v>
       </c>
       <c r="D42">
-        <v>-0.1301242216346709</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08893494994615411</v>
+      </c>
+      <c r="E42">
+        <v>0.01617750904950953</v>
+      </c>
+      <c r="F42">
+        <v>0.0422448768211609</v>
+      </c>
+      <c r="G42">
+        <v>-0.01941264331851609</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01622652193076605</v>
+        <v>0.03500090243428105</v>
       </c>
       <c r="C43">
-        <v>-0.007232209203137634</v>
+        <v>-0.01826798471782663</v>
       </c>
       <c r="D43">
-        <v>0.009778589709145037</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.006003197369161327</v>
+      </c>
+      <c r="E43">
+        <v>0.0216144145722619</v>
+      </c>
+      <c r="F43">
+        <v>0.007343973840401563</v>
+      </c>
+      <c r="G43">
+        <v>0.1192998332580288</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.0001416963327904701</v>
+        <v>0.01353620573640226</v>
       </c>
       <c r="C44">
-        <v>0.003607625759006722</v>
+        <v>-0.05946090338263935</v>
       </c>
       <c r="D44">
-        <v>-0.04848841424395051</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.007112619026608709</v>
+      </c>
+      <c r="E44">
+        <v>0.02643034312295011</v>
+      </c>
+      <c r="F44">
+        <v>0.00490375711484512</v>
+      </c>
+      <c r="G44">
+        <v>0.1101712199360438</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.009151904629738479</v>
+        <v>0.008295491965044128</v>
       </c>
       <c r="C46">
-        <v>0.005091154438219973</v>
+        <v>-0.01414900751366349</v>
       </c>
       <c r="D46">
-        <v>0.003720450278994495</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01265518389822194</v>
+      </c>
+      <c r="E46">
+        <v>0.002413889624433542</v>
+      </c>
+      <c r="F46">
+        <v>0.01488429877245776</v>
+      </c>
+      <c r="G46">
+        <v>0.1067639312034421</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.02281575833916392</v>
+        <v>0.07757308290049593</v>
       </c>
       <c r="C47">
-        <v>-0.01872187265769262</v>
+        <v>-0.06889916614762484</v>
       </c>
       <c r="D47">
-        <v>-0.07151772203184728</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.004806576813379478</v>
+      </c>
+      <c r="E47">
+        <v>-0.00587149061125509</v>
+      </c>
+      <c r="F47">
+        <v>0.05290409414173208</v>
+      </c>
+      <c r="G47">
+        <v>0.08433947909064032</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.008596918739158809</v>
+        <v>0.0184534089698382</v>
       </c>
       <c r="C48">
-        <v>-0.005094490488521382</v>
+        <v>-0.01289743319803976</v>
       </c>
       <c r="D48">
-        <v>-0.01568997916614597</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.00239441841420628</v>
+      </c>
+      <c r="E48">
+        <v>0.006856225276097309</v>
+      </c>
+      <c r="F48">
+        <v>0.01848431040928593</v>
+      </c>
+      <c r="G48">
+        <v>0.09834402018690701</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.03366914340759348</v>
+        <v>0.07537812228709521</v>
       </c>
       <c r="C50">
-        <v>-0.02477896466092525</v>
+        <v>-0.07174679388485028</v>
       </c>
       <c r="D50">
-        <v>-0.06736982099312856</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002224754901012532</v>
+      </c>
+      <c r="E50">
+        <v>-0.003180798557187943</v>
+      </c>
+      <c r="F50">
+        <v>0.05431948070339353</v>
+      </c>
+      <c r="G50">
+        <v>0.09348179099005731</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.005165693430322284</v>
+        <v>0.01339530657671966</v>
       </c>
       <c r="C51">
-        <v>0.003354792930365962</v>
+        <v>-0.03618623952816461</v>
       </c>
       <c r="D51">
-        <v>-0.01879508338325269</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01093305619512497</v>
+      </c>
+      <c r="E51">
+        <v>0.02972069930943895</v>
+      </c>
+      <c r="F51">
+        <v>-0.024361149046889</v>
+      </c>
+      <c r="G51">
+        <v>0.1231690571184453</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.03791850054721795</v>
+        <v>0.08196683569621745</v>
       </c>
       <c r="C53">
-        <v>-0.0274093862683602</v>
+        <v>-0.08508085670443474</v>
       </c>
       <c r="D53">
-        <v>-0.1256612222021471</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003536507497989296</v>
+      </c>
+      <c r="E53">
+        <v>-0.02535401470648639</v>
+      </c>
+      <c r="F53">
+        <v>0.06399943725890112</v>
+      </c>
+      <c r="G53">
+        <v>0.09318884241807388</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01592463101699694</v>
+        <v>0.03113505782521471</v>
       </c>
       <c r="C54">
-        <v>-0.01554265550622263</v>
+        <v>-0.01888297488908837</v>
       </c>
       <c r="D54">
-        <v>0.002342468329533842</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.001083512890205997</v>
+      </c>
+      <c r="E54">
+        <v>0.01963026533257126</v>
+      </c>
+      <c r="F54">
+        <v>0.005029339228248879</v>
+      </c>
+      <c r="G54">
+        <v>0.1076186916702931</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.01974016911123899</v>
+        <v>0.07177702629433506</v>
       </c>
       <c r="C55">
-        <v>-0.01519595001264997</v>
+        <v>-0.06806158228930395</v>
       </c>
       <c r="D55">
-        <v>-0.09833592381334526</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.00509378275446073</v>
+      </c>
+      <c r="E55">
+        <v>-0.02377328157760019</v>
+      </c>
+      <c r="F55">
+        <v>0.06290085774958941</v>
+      </c>
+      <c r="G55">
+        <v>0.07022951930723044</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.04385198743490943</v>
+        <v>0.1361024033574409</v>
       </c>
       <c r="C56">
-        <v>-0.03624380408546977</v>
+        <v>-0.1076504082765537</v>
       </c>
       <c r="D56">
-        <v>-0.1560666153198828</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01253416938226474</v>
+      </c>
+      <c r="E56">
+        <v>-0.03373672047054403</v>
+      </c>
+      <c r="F56">
+        <v>0.08066632596403056</v>
+      </c>
+      <c r="G56">
+        <v>0.04430314310339289</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.01957217361258596</v>
+        <v>0.00572808068797187</v>
       </c>
       <c r="C57">
-        <v>0.01361216067196582</v>
+        <v>-0.006482010061318396</v>
       </c>
       <c r="D57">
-        <v>-0.02959980388182217</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02293154330269326</v>
+      </c>
+      <c r="E57">
+        <v>0.02530545628362686</v>
+      </c>
+      <c r="F57">
+        <v>-0.007391831551242761</v>
+      </c>
+      <c r="G57">
+        <v>0.02332728579856708</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01279045707822652</v>
+        <v>0.0526545631279361</v>
       </c>
       <c r="C58">
-        <v>-0.006487042650966652</v>
+        <v>-0.04125866778582757</v>
       </c>
       <c r="D58">
-        <v>-0.100949938437262</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.02067202942495224</v>
+      </c>
+      <c r="E58">
+        <v>0.9028826628669863</v>
+      </c>
+      <c r="F58">
+        <v>0.2947369833546856</v>
+      </c>
+      <c r="G58">
+        <v>-0.2379942300884283</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.2104144643687928</v>
+        <v>0.159606164639209</v>
       </c>
       <c r="C59">
-        <v>-0.1525875450195951</v>
+        <v>0.2056629286273388</v>
       </c>
       <c r="D59">
-        <v>0.1142364471010372</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01160324005461814</v>
+      </c>
+      <c r="E59">
+        <v>0.01935896516571047</v>
+      </c>
+      <c r="F59">
+        <v>0.001039588243899419</v>
+      </c>
+      <c r="G59">
+        <v>0.04391325614090632</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.1845640642931791</v>
+        <v>0.2878806691147677</v>
       </c>
       <c r="C60">
-        <v>-0.1099766595660606</v>
+        <v>-0.109396790022445</v>
       </c>
       <c r="D60">
-        <v>-0.158599662895702</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01240020485098097</v>
+      </c>
+      <c r="E60">
+        <v>0.009383502451719424</v>
+      </c>
+      <c r="F60">
+        <v>-0.3391071400957926</v>
+      </c>
+      <c r="G60">
+        <v>-0.1617778650944572</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003356562141458317</v>
+        <v>0.03887069174007352</v>
       </c>
       <c r="C61">
-        <v>0.001884132049974978</v>
+        <v>-0.06532971954028313</v>
       </c>
       <c r="D61">
-        <v>-0.07400375577699253</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.005694249918576729</v>
+      </c>
+      <c r="E61">
+        <v>0.02510357490021574</v>
+      </c>
+      <c r="F61">
+        <v>-0.01326603838341386</v>
+      </c>
+      <c r="G61">
+        <v>0.09651960556264558</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.005631805538017451</v>
+        <v>0.01481664810411938</v>
       </c>
       <c r="C63">
-        <v>0.004977286155636328</v>
+        <v>-0.03040791954888029</v>
       </c>
       <c r="D63">
-        <v>-0.02622137683007712</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.008748663568808926</v>
+      </c>
+      <c r="E63">
+        <v>0.006536930710476928</v>
+      </c>
+      <c r="F63">
+        <v>0.01472641027665801</v>
+      </c>
+      <c r="G63">
+        <v>0.09477540252601363</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.02650841430498108</v>
+        <v>0.04927295211596582</v>
       </c>
       <c r="C64">
-        <v>-0.01256703846703995</v>
+        <v>-0.04787798896207125</v>
       </c>
       <c r="D64">
-        <v>-0.05861953921182089</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006548096458541598</v>
+      </c>
+      <c r="E64">
+        <v>0.008959550175951436</v>
+      </c>
+      <c r="F64">
+        <v>-0.007321858916288545</v>
+      </c>
+      <c r="G64">
+        <v>0.09959478597140406</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.02854864854770535</v>
+        <v>0.07479619801154476</v>
       </c>
       <c r="C65">
-        <v>0.00110290350613262</v>
+        <v>-0.05764041968614034</v>
       </c>
       <c r="D65">
-        <v>-0.1117167548032835</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.0169546758728155</v>
+      </c>
+      <c r="E65">
+        <v>0.04224455866470672</v>
+      </c>
+      <c r="F65">
+        <v>-0.02787273241760011</v>
+      </c>
+      <c r="G65">
+        <v>0.04505681707225968</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.006697374754082609</v>
+        <v>0.05092580216571026</v>
       </c>
       <c r="C66">
-        <v>0.01605055404385817</v>
+        <v>-0.1065062085115535</v>
       </c>
       <c r="D66">
-        <v>-0.1400976847365265</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01193008056652475</v>
+      </c>
+      <c r="E66">
+        <v>0.04300319896317088</v>
+      </c>
+      <c r="F66">
+        <v>-0.03303980773409545</v>
+      </c>
+      <c r="G66">
+        <v>0.104521033534075</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.03557061157966326</v>
+        <v>0.05385069725960792</v>
       </c>
       <c r="C67">
-        <v>-0.03082034335267281</v>
+        <v>-0.03372952108124086</v>
       </c>
       <c r="D67">
-        <v>-0.05734243812215182</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005810770185517897</v>
+      </c>
+      <c r="E67">
+        <v>-0.001042564261633734</v>
+      </c>
+      <c r="F67">
+        <v>0.01647616115354572</v>
+      </c>
+      <c r="G67">
+        <v>0.07560817879970476</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.2170206406691456</v>
+        <v>0.1552091562303992</v>
       </c>
       <c r="C68">
-        <v>-0.1341078126522559</v>
+        <v>0.269617058682216</v>
       </c>
       <c r="D68">
-        <v>0.1739190168494487</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.005416118375772639</v>
+      </c>
+      <c r="E68">
+        <v>0.01086417720255768</v>
+      </c>
+      <c r="F68">
+        <v>0.03644459940216375</v>
+      </c>
+      <c r="G68">
+        <v>0.03159916511786671</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.03009817961165958</v>
+        <v>0.08244197767977818</v>
       </c>
       <c r="C69">
-        <v>-0.02870968569186065</v>
+        <v>-0.07019358374291572</v>
       </c>
       <c r="D69">
-        <v>-0.07577410024550114</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008777058474619452</v>
+      </c>
+      <c r="E69">
+        <v>-0.01979338760774852</v>
+      </c>
+      <c r="F69">
+        <v>0.03642992199451936</v>
+      </c>
+      <c r="G69">
+        <v>0.1021855239841951</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.176827510104156</v>
+        <v>0.1411096292978805</v>
       </c>
       <c r="C71">
-        <v>-0.1172808213079132</v>
+        <v>0.2305590717379448</v>
       </c>
       <c r="D71">
-        <v>0.1228798121297686</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.003153196236098051</v>
+      </c>
+      <c r="E71">
+        <v>0.03105170976358896</v>
+      </c>
+      <c r="F71">
+        <v>0.02592201876999455</v>
+      </c>
+      <c r="G71">
+        <v>0.07148086362320534</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.01312847074905726</v>
+        <v>0.08499790373554708</v>
       </c>
       <c r="C72">
-        <v>-0.01626858597891518</v>
+        <v>-0.06863781672070679</v>
       </c>
       <c r="D72">
-        <v>-0.105446209012049</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008169223115728494</v>
+      </c>
+      <c r="E72">
+        <v>-0.00837193360039694</v>
+      </c>
+      <c r="F72">
+        <v>-0.0365071069271944</v>
+      </c>
+      <c r="G72">
+        <v>0.08705491224428552</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.2277276254709994</v>
+        <v>0.3766278161320642</v>
       </c>
       <c r="C73">
-        <v>-0.1291976043622926</v>
+        <v>-0.1172960116497759</v>
       </c>
       <c r="D73">
-        <v>-0.2925414250067324</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02177581306387992</v>
+      </c>
+      <c r="E73">
+        <v>0.09135371796738156</v>
+      </c>
+      <c r="F73">
+        <v>-0.5800502144615818</v>
+      </c>
+      <c r="G73">
+        <v>-0.2914801652983214</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.04438148041937783</v>
+        <v>0.104631361452373</v>
       </c>
       <c r="C74">
-        <v>-0.03849369384675762</v>
+        <v>-0.1094619037578868</v>
       </c>
       <c r="D74">
-        <v>-0.1646154729618021</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009429888751454377</v>
+      </c>
+      <c r="E74">
+        <v>-0.007976954083945133</v>
+      </c>
+      <c r="F74">
+        <v>0.06871145333513903</v>
+      </c>
+      <c r="G74">
+        <v>0.0835861882919976</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1117297995815177</v>
+        <v>0.2475749136314207</v>
       </c>
       <c r="C75">
-        <v>-0.09188415919690496</v>
+        <v>-0.1532536131752257</v>
       </c>
       <c r="D75">
-        <v>-0.2969175702725242</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03097185642367687</v>
+      </c>
+      <c r="E75">
+        <v>-0.07160452566669025</v>
+      </c>
+      <c r="F75">
+        <v>0.1645339740030714</v>
+      </c>
+      <c r="G75">
+        <v>-0.01786880128250782</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.05607143094143965</v>
+        <v>0.119170976877399</v>
       </c>
       <c r="C76">
-        <v>-0.05376478232389459</v>
+        <v>-0.1093975660055674</v>
       </c>
       <c r="D76">
-        <v>-0.2060719627683895</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01808955852241849</v>
+      </c>
+      <c r="E76">
+        <v>-0.02764803557754408</v>
+      </c>
+      <c r="F76">
+        <v>0.1043422645847715</v>
+      </c>
+      <c r="G76">
+        <v>0.0610115764483404</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01635966706423767</v>
+        <v>0.07086581187962103</v>
       </c>
       <c r="C77">
-        <v>0.0003991308917923686</v>
+        <v>-0.06107422392591302</v>
       </c>
       <c r="D77">
-        <v>-0.07875255671513548</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01033410881350981</v>
+      </c>
+      <c r="E77">
+        <v>0.05163670217345657</v>
+      </c>
+      <c r="F77">
+        <v>-0.01477123829323933</v>
+      </c>
+      <c r="G77">
+        <v>0.06420387575064096</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.007761976675692507</v>
+        <v>0.04231200461165925</v>
       </c>
       <c r="C78">
-        <v>-0.0008293114723131863</v>
+        <v>-0.04902791595870358</v>
       </c>
       <c r="D78">
-        <v>-0.06474587732343962</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.005998743477324304</v>
+      </c>
+      <c r="E78">
+        <v>0.03115754431983908</v>
+      </c>
+      <c r="F78">
+        <v>-0.03578078464362321</v>
+      </c>
+      <c r="G78">
+        <v>0.1042215108686785</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.0001461987881978684</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-7.78055119634383e-05</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-6.137870042603155e-05</v>
+      </c>
+      <c r="E79">
+        <v>0.00180246039014031</v>
+      </c>
+      <c r="F79">
+        <v>-0.001394721699765424</v>
+      </c>
+      <c r="G79">
+        <v>9.391871146520278e-05</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03349748932459563</v>
+        <v>0.04301232625740376</v>
       </c>
       <c r="C80">
-        <v>-0.00939297603092118</v>
+        <v>-0.05108529236912268</v>
       </c>
       <c r="D80">
-        <v>-0.07259392896919098</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01330198439120949</v>
+      </c>
+      <c r="E80">
+        <v>0.02698399971789466</v>
+      </c>
+      <c r="F80">
+        <v>-0.009716176575901665</v>
+      </c>
+      <c r="G80">
+        <v>0.05298918842906226</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.06376283972969325</v>
+        <v>0.1373976826560918</v>
       </c>
       <c r="C81">
-        <v>-0.05153960478907454</v>
+        <v>-0.09603125027540721</v>
       </c>
       <c r="D81">
-        <v>-0.1644151707772012</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01486319312567955</v>
+      </c>
+      <c r="E81">
+        <v>-0.03649479045330506</v>
+      </c>
+      <c r="F81">
+        <v>0.125881655533567</v>
+      </c>
+      <c r="G81">
+        <v>0.02129547881313777</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1355666422926858</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.0821162641326942</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.01000476041979114</v>
+      </c>
+      <c r="E82">
+        <v>-0.1053082497026115</v>
+      </c>
+      <c r="F82">
+        <v>0.05204488627080648</v>
+      </c>
+      <c r="G82">
+        <v>0.05544068140372736</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.01383733434190789</v>
+        <v>0.03605172062603403</v>
       </c>
       <c r="C83">
-        <v>-0.004742985255927697</v>
+        <v>-0.02847995415062133</v>
       </c>
       <c r="D83">
-        <v>-0.02372878944408463</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.006183212799455512</v>
+      </c>
+      <c r="E83">
+        <v>0.03214646499947095</v>
+      </c>
+      <c r="F83">
+        <v>-0.02868587436839694</v>
+      </c>
+      <c r="G83">
+        <v>0.06227422671765627</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.09663895289620902</v>
+        <v>0.2114817369435356</v>
       </c>
       <c r="C85">
-        <v>-0.06644538799042618</v>
+        <v>-0.1480915762153516</v>
       </c>
       <c r="D85">
-        <v>-0.268197131526632</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01698731519350066</v>
+      </c>
+      <c r="E85">
+        <v>-0.1048673851676442</v>
+      </c>
+      <c r="F85">
+        <v>0.1167935313398572</v>
+      </c>
+      <c r="G85">
+        <v>-0.05967196302214668</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01539083561744324</v>
+        <v>0.01408712347596722</v>
       </c>
       <c r="C86">
-        <v>-0.00483678693182083</v>
+        <v>-0.02407557285125208</v>
       </c>
       <c r="D86">
-        <v>-0.03652880980346366</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01154783373334959</v>
+      </c>
+      <c r="E86">
+        <v>0.05364662771230063</v>
+      </c>
+      <c r="F86">
+        <v>-0.01753036744198696</v>
+      </c>
+      <c r="G86">
+        <v>0.1925680915456351</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.005286243484682799</v>
+        <v>0.02101929191276454</v>
       </c>
       <c r="C87">
-        <v>0.01424400910059471</v>
+        <v>-0.02035403965377289</v>
       </c>
       <c r="D87">
-        <v>-0.03089421917772112</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01217477596167724</v>
+      </c>
+      <c r="E87">
+        <v>0.09695641286175213</v>
+      </c>
+      <c r="F87">
+        <v>-0.006864224842213369</v>
+      </c>
+      <c r="G87">
+        <v>0.1226375101852726</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.04966710547751831</v>
+        <v>0.09364845511647352</v>
       </c>
       <c r="C88">
-        <v>-0.00697714503815828</v>
+        <v>-0.06842116849799984</v>
       </c>
       <c r="D88">
-        <v>-0.04433847236299395</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02241430558092046</v>
+      </c>
+      <c r="E88">
+        <v>-0.004062915992485986</v>
+      </c>
+      <c r="F88">
+        <v>0.01976804812765171</v>
+      </c>
+      <c r="G88">
+        <v>0.1027085519837636</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.3297004299934287</v>
+        <v>0.2330511398682458</v>
       </c>
       <c r="C89">
-        <v>-0.2153725171303242</v>
+        <v>0.3679924232150674</v>
       </c>
       <c r="D89">
-        <v>0.2078455227379472</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0005372586265668337</v>
+      </c>
+      <c r="E89">
+        <v>-0.01948594549313387</v>
+      </c>
+      <c r="F89">
+        <v>0.02553920663241901</v>
+      </c>
+      <c r="G89">
+        <v>0.06961326334493156</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.2695964164453015</v>
+        <v>0.2074228935250967</v>
       </c>
       <c r="C90">
-        <v>-0.1800474014406059</v>
+        <v>0.3167254007959834</v>
       </c>
       <c r="D90">
-        <v>0.1875336910371075</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004749018409126384</v>
+      </c>
+      <c r="E90">
+        <v>-0.0001758918124088963</v>
+      </c>
+      <c r="F90">
+        <v>0.04612420899211968</v>
+      </c>
+      <c r="G90">
+        <v>0.0438416048947981</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.09501554679507328</v>
+        <v>0.184797686410755</v>
       </c>
       <c r="C91">
-        <v>-0.08073908794857639</v>
+        <v>-0.1417095612251437</v>
       </c>
       <c r="D91">
-        <v>-0.2237869475074747</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02195814765594648</v>
+      </c>
+      <c r="E91">
+        <v>-0.06590174068603709</v>
+      </c>
+      <c r="F91">
+        <v>0.1396161113567002</v>
+      </c>
+      <c r="G91">
+        <v>0.03611658237455791</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2300353373376076</v>
+        <v>0.2003552798076619</v>
       </c>
       <c r="C92">
-        <v>-0.1898100973543988</v>
+        <v>0.2569989472946159</v>
       </c>
       <c r="D92">
-        <v>0.09719409540237473</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03840243357653866</v>
+      </c>
+      <c r="E92">
+        <v>0.0384668355391409</v>
+      </c>
+      <c r="F92">
+        <v>0.06187893966405299</v>
+      </c>
+      <c r="G92">
+        <v>0.1100094109648726</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2892643581040454</v>
+        <v>0.2317890035731486</v>
       </c>
       <c r="C93">
-        <v>-0.1995921053378425</v>
+        <v>0.3133355513304909</v>
       </c>
       <c r="D93">
-        <v>0.1584223578746758</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01163417901198062</v>
+      </c>
+      <c r="E93">
+        <v>0.001628793686538176</v>
+      </c>
+      <c r="F93">
+        <v>0.04349158123487031</v>
+      </c>
+      <c r="G93">
+        <v>0.05867261740323441</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1473638993113493</v>
+        <v>0.3205358904610455</v>
       </c>
       <c r="C94">
-        <v>-0.09309474622744303</v>
+        <v>-0.1808401562028938</v>
       </c>
       <c r="D94">
-        <v>-0.2872365139502167</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.01942637657844125</v>
+      </c>
+      <c r="E94">
+        <v>-0.2288073644153496</v>
+      </c>
+      <c r="F94">
+        <v>0.4732699427723287</v>
+      </c>
+      <c r="G94">
+        <v>-0.4076595563636974</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.003173696586916004</v>
+        <v>0.1005864742371238</v>
       </c>
       <c r="C95">
-        <v>-0.01050688692894363</v>
+        <v>-0.0880567227335899</v>
       </c>
       <c r="D95">
-        <v>-0.1212756890305213</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.009675383913099689</v>
+      </c>
+      <c r="E95">
+        <v>0.08854844621047438</v>
+      </c>
+      <c r="F95">
+        <v>-0.18014288891964</v>
+      </c>
+      <c r="G95">
+        <v>0.0002472886400614692</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1325847064549644</v>
+        <v>0.1947494039504505</v>
       </c>
       <c r="C98">
-        <v>-0.107452371693166</v>
+        <v>-0.04491560856044383</v>
       </c>
       <c r="D98">
-        <v>-0.1301734986806514</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01295572789165473</v>
+      </c>
+      <c r="E98">
+        <v>0.07684099425058503</v>
+      </c>
+      <c r="F98">
+        <v>-0.2372225945592205</v>
+      </c>
+      <c r="G98">
+        <v>-0.02820418625968796</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.00996507340655616</v>
+        <v>0.008294728417413954</v>
       </c>
       <c r="C101">
-        <v>0.0006861863572396921</v>
+        <v>-0.02224716694302405</v>
       </c>
       <c r="D101">
-        <v>-0.01727402010920019</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.009243743195363962</v>
+      </c>
+      <c r="E101">
+        <v>0.006288328523152312</v>
+      </c>
+      <c r="F101">
+        <v>0.0140829315122936</v>
+      </c>
+      <c r="G101">
+        <v>0.09799319518404039</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.05663144418516761</v>
+        <v>0.1151494875872515</v>
       </c>
       <c r="C102">
-        <v>-0.03054203174207887</v>
+        <v>-0.08403925099583816</v>
       </c>
       <c r="D102">
-        <v>-0.1368463999259859</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0008551802226190038</v>
+      </c>
+      <c r="E102">
+        <v>-0.03445199223752087</v>
+      </c>
+      <c r="F102">
+        <v>0.04035873106807711</v>
+      </c>
+      <c r="G102">
+        <v>0.01342186375750579</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.5603650259066865</v>
+        <v>0.02116477907966311</v>
       </c>
       <c r="C104">
-        <v>0.8171934063556392</v>
+        <v>0.03047344206476727</v>
       </c>
       <c r="D104">
-        <v>0.02833160576864494</v>
+        <v>-0.9877584568482454</v>
+      </c>
+      <c r="E104">
+        <v>-0.05115975501454099</v>
+      </c>
+      <c r="F104">
+        <v>0.03545409229030828</v>
+      </c>
+      <c r="G104">
+        <v>-0.04046800401727155</v>
       </c>
     </row>
   </sheetData>
